--- a/DB/8강Source.xlsx
+++ b/DB/8강Source.xlsx
@@ -1000,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G37"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1012,7 @@
     <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1130,8 +1130,8 @@
         <v>27454</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>"values("&amp;A5&amp;","&amp;B5&amp;","&amp;C5&amp;","&amp;D5&amp;")"</f>
-        <v>values(1,오리옹,27454,27454)</v>
+        <f>"("&amp;A5&amp;",'"&amp;B5&amp;"',"&amp;C5&amp;","&amp;D5&amp;")"</f>
+        <v>(1,'오리옹',27454,27454)</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1146,8 +1146,8 @@
         <v>2</v>
       </c>
       <c r="J5" t="str">
-        <f>"("&amp;F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5&amp;")"</f>
-        <v>(1,산토,800,2)</v>
+        <f>"("&amp;F5&amp;",'"&amp;G5&amp;"',"&amp;H5&amp;","&amp;I5&amp;")"</f>
+        <v>(1,'산토',800,2)</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1168,8 +1168,16 @@
         <f>"("&amp;K5&amp;","&amp;L5&amp;",'"&amp;M5&amp;"',"&amp;N5&amp;",'"&amp;O5&amp;"')"</f>
         <v>(1,3,'사거리 슈퍼',3,'44624')</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <f>VLOOKUP($L5,$L$5:$N$24,3,FALSE) * VLOOKUP($F$5:$F$14,$F$5:$H$14,3,FALSE)</f>
+        <v>2400</v>
+      </c>
+      <c r="T5">
+        <f>VLOOKUP($F5,$L$5:$N$23,3,FALSE) * $H$5:$H$14</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1182,9 +1190,9 @@
       <c r="D6" s="2">
         <v>27881</v>
       </c>
-      <c r="E6" t="str">
-        <f>"values("&amp;A6&amp;","&amp;B6&amp;","&amp;C6&amp;","&amp;D6&amp;")"</f>
-        <v>values(2,그라운,27760,27881)</v>
+      <c r="E6" s="3" t="str">
+        <f t="shared" ref="E6:E8" si="0">"("&amp;A6&amp;",'"&amp;B6&amp;"',"&amp;C6&amp;","&amp;D6&amp;")"</f>
+        <v>(2,'그라운',27760,27881)</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1199,8 +1207,8 @@
         <v>1</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ref="J6:J14" si="0">"("&amp;F6&amp;","&amp;G6&amp;","&amp;H6&amp;","&amp;I6&amp;")"</f>
-        <v>(2,쪼고랫,1000,1)</v>
+        <f t="shared" ref="J6:J14" si="1">"("&amp;F6&amp;",'"&amp;G6&amp;"',"&amp;H6&amp;","&amp;I6&amp;")"</f>
+        <v>(2,'쪼고랫',1000,1)</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
@@ -1218,11 +1226,19 @@
         <v>44624</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P24" si="1">"("&amp;K6&amp;","&amp;L6&amp;",'"&amp;M6&amp;"',"&amp;N6&amp;",'"&amp;O6&amp;"')"</f>
+        <f t="shared" ref="P6:P24" si="2">"("&amp;K6&amp;","&amp;L6&amp;",'"&amp;M6&amp;"',"&amp;N6&amp;",'"&amp;O6&amp;"')"</f>
         <v>(2,1,'오거리 만장',1,'44624')</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <f t="shared" ref="S6:S23" si="3">VLOOKUP($L6,$L$5:$N$24,3,FALSE) * VLOOKUP($F$5:$F$14,$F$5:$H$14,3,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T12" si="4">VLOOKUP($F6,$L$5:$N$23,3,FALSE) * $H$5:$H$14</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1235,9 +1251,9 @@
       <c r="D7" s="2">
         <v>29252</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E8" si="2">"values("&amp;A7&amp;","&amp;B7&amp;","&amp;C7&amp;","&amp;D7&amp;")"</f>
-        <v>values(3,롱심,29221,29252)</v>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'롱심',29221,29252)</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1252,8 +1268,8 @@
         <v>3</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,새우통,300,3)</v>
+        <f t="shared" si="1"/>
+        <v>(3,'새우통',300,3)</v>
       </c>
       <c r="K7" s="1">
         <v>3</v>
@@ -1271,11 +1287,19 @@
         <v>44624</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(3,2,'DU',4,'44624')</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1288,9 +1312,9 @@
       <c r="D8" s="2">
         <v>32143</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>values(4,놋데,32143,32143)</v>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'놋데',32143,32143)</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -1305,8 +1329,8 @@
         <v>10</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,동물나라,400,10)</v>
+        <f t="shared" si="1"/>
+        <v>(4,'동물나라',400,10)</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
@@ -1324,11 +1348,19 @@
         <v>44624</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(4,4,'만남의 광장',5,'44624')</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F9" s="1">
         <v>5</v>
       </c>
@@ -1342,8 +1374,8 @@
         <v>1</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,가물치,300,1)</v>
+        <f t="shared" si="1"/>
+        <v>(5,'가물치',300,1)</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1361,11 +1393,19 @@
         <v>44624</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(5,1,'F Space',1,'44624')</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F10" s="1">
         <v>6</v>
       </c>
@@ -1379,8 +1419,8 @@
         <v>11</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,거북집,400,11)</v>
+        <f t="shared" si="1"/>
+        <v>(6,'거북집',400,11)</v>
       </c>
       <c r="K10" s="1">
         <v>6</v>
@@ -1398,11 +1438,19 @@
         <v>44640</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(6,5,'올리브 올드',2,'44640')</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F11" s="1">
         <v>7</v>
       </c>
@@ -1416,8 +1464,8 @@
         <v>2</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>(7,채소스릭,400,2)</v>
+        <f t="shared" si="1"/>
+        <v>(7,'채소스릭',400,2)</v>
       </c>
       <c r="K11" s="1">
         <v>7</v>
@@ -1435,11 +1483,19 @@
         <v>44640</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(7,6,'사거리 슈퍼',3,'44640')</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F12" s="1">
         <v>8</v>
       </c>
@@ -1453,8 +1509,8 @@
         <v>1</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,꼴두기칩,300,1)</v>
+        <f t="shared" si="1"/>
+        <v>(8,'꼴두기칩',300,1)</v>
       </c>
       <c r="K12" s="1">
         <v>8</v>
@@ -1472,11 +1528,19 @@
         <v>44640</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(8,1,'DU',4,'44640')</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F13" s="1">
         <v>9</v>
       </c>
@@ -1490,8 +1554,8 @@
         <v>3</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>(9,토스틱,400,3)</v>
+        <f t="shared" si="1"/>
+        <v>(9,'토스틱',400,3)</v>
       </c>
       <c r="K13" s="1">
         <v>9</v>
@@ -1509,11 +1573,19 @@
         <v>44652</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(9,7,'DU',1,'44652')</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" ref="T13:T23" si="5">VLOOKUP($F13,$L$5:$N$23,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F14" s="1">
         <v>10</v>
       </c>
@@ -1527,8 +1599,8 @@
         <v>2</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,참깨칩,300,2)</v>
+        <f t="shared" si="1"/>
+        <v>(10,'참깨칩',300,2)</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -1546,11 +1618,19 @@
         <v>44652</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(10,8,'F Space',1,'44652')</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K15" s="1">
         <v>11</v>
       </c>
@@ -1567,11 +1647,19 @@
         <v>44652</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(11,2,'올리브 올드',2,'44652')</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K16" s="1">
         <v>12</v>
       </c>
@@ -1588,11 +1676,19 @@
         <v>44659</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(12,4,'HS',3,'44659')</v>
       </c>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S16" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G17" t="e">
         <f>VLOOKUP($F5,$L$5:$L$23,4)</f>
         <v>#REF!</v>
@@ -1613,11 +1709,19 @@
         <v>44659</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(13,3,'사거리 슈퍼',5,'44659')</v>
       </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G18">
         <f>VLOOKUP($L5,$F$5:$H$14,3,FALSE)*VLOOKUP($F5,$L$5:$N$24,3,FALSE)</f>
         <v>300</v>
@@ -1638,13 +1742,21 @@
         <v>44659</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(14,1,'HS',1,'44659')</v>
       </c>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S18" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G19">
-        <f t="shared" ref="G19:G37" si="3">VLOOKUP($L6,$F$5:$H$14,3,FALSE)*VLOOKUP($F6,$L$5:$N$24,3,FALSE)</f>
+        <f t="shared" ref="G19:G37" si="6">VLOOKUP($L6,$F$5:$H$14,3,FALSE)*VLOOKUP($F6,$L$5:$N$24,3,FALSE)</f>
         <v>3200</v>
       </c>
       <c r="K19" s="1">
@@ -1663,13 +1775,21 @@
         <v>44666</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(15,3,'DU',1,'44666')</v>
       </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S19" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="K20" s="1">
@@ -1688,13 +1808,21 @@
         <v>44666</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(16,4,'F Space',3,'44666')</v>
       </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S20" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="K21" s="1">
@@ -1713,13 +1841,21 @@
         <v>44666</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(17,5,'만남의 광장',4,'44666')</v>
       </c>
-    </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S21" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="K22" s="1">
@@ -1738,13 +1874,21 @@
         <v>44674</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(18,6,'사거리 슈퍼',6,'44674')</v>
       </c>
-    </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S22" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="K23" s="1">
@@ -1763,13 +1907,21 @@
         <v>44674</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(19,1,'오거리 만장',1,'44674')</v>
       </c>
-    </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="S23" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="K24" s="1">
@@ -1788,91 +1940,91 @@
         <v>44674</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(20,3,'사거리 슈퍼',2,'44674')</v>
       </c>
     </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G26" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G27" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G28" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="7:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G29" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="7:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G30" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G31" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="7:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G32" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" t="e">
-        <f t="shared" ref="G19:G38" si="4">VLOOKUP($L25,$F$5:$H$14,3,FALSE)</f>
+        <f t="shared" ref="G38" si="7">VLOOKUP($L25,$F$5:$H$14,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
